--- a/BantSpirit/Training_set_BantSpirit/Features_old.xlsx
+++ b/BantSpirit/Training_set_BantSpirit/Features_old.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -492,21 +492,21 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="7" width="10.5703125" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1"/>
-    <col min="10" max="12" width="11.7109375" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" customWidth="1"/>
-    <col min="18" max="18" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="6" max="7" width="10.5546875" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" customWidth="1"/>
+    <col min="10" max="12" width="11.6640625" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" customWidth="1"/>
+    <col min="18" max="18" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1594,13 +1594,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2113,7 +2113,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2125,7 +2125,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
